--- a/doc/SWP391-Group8_BackLog.xlsx
+++ b/doc/SWP391-Group8_BackLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mock\Git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0FCA1E-AB9A-4EE7-94F6-47BD3A38C33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8468DDB2-1802-40CF-9838-136549E7BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>Create News</t>
-  </si>
-  <si>
-    <t>Use API to get what users input for their news and then the server creates new news in the database based on that
- information</t>
   </si>
   <si>
     <t>Manager Account</t>
@@ -349,13 +345,20 @@
     <t>View News</t>
   </si>
   <si>
-    <t>Delete News</t>
-  </si>
-  <si>
     <t>Categories News</t>
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Hide News</t>
+  </si>
+  <si>
+    <t>Manage News</t>
+  </si>
+  <si>
+    <t>Use API to get what users input for their news and then the server to manage new news in the database based on that
+ information</t>
   </si>
 </sst>
 </file>
@@ -924,8 +927,8 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1290,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>44</v>
@@ -1299,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>30</v>
@@ -1307,10 +1310,11 @@
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <v>17</v>
+        <f t="shared" ref="A24:A29" si="2">ROW()-8</f>
+        <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>44</v>
@@ -1319,40 +1323,40 @@
         <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <f t="shared" ref="A25:A29" si="2">ROW()-8</f>
+      <c r="A25" s="13">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="13">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>39</v>
@@ -1361,19 +1365,19 @@
         <v>11</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="13">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>39</v>
@@ -1382,19 +1386,19 @@
         <v>11</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>39</v>
@@ -1403,19 +1407,19 @@
         <v>11</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="13">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>39</v>
@@ -1424,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>35</v>
@@ -1439,7 +1443,7 @@
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -1447,43 +1451,43 @@
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="D34" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -1491,7 +1495,7 @@
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -1499,7 +1503,7 @@
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -4448,7 +4452,7 @@
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="E6" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4472,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4484,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>10</v>
@@ -4493,10 +4497,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -4506,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>10</v>
@@ -4515,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -4537,10 +4541,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -4559,10 +4563,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -4581,10 +4585,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -4603,10 +4607,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -4625,10 +4629,10 @@
         <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -4647,10 +4651,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -7619,7 +7623,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7659,7 +7663,7 @@
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="E6" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7683,10 +7687,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7695,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>10</v>
@@ -7704,10 +7708,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -7717,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
@@ -7726,10 +7730,10 @@
         <v>15</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -7738,7 +7742,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>10</v>
@@ -7747,10 +7751,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -7769,10 +7773,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -7782,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>44</v>
@@ -7791,10 +7795,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -7804,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>44</v>
@@ -7813,10 +7817,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -7835,10 +7839,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -7848,7 +7852,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>10</v>
@@ -7857,10 +7861,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -10844,7 +10848,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10884,7 +10888,7 @@
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="E6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10908,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10919,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>10</v>
@@ -10928,10 +10932,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -10940,19 +10944,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -10961,7 +10965,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>39</v>
@@ -10970,10 +10974,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -10982,7 +10986,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>44</v>
@@ -10991,10 +10995,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -11003,7 +11007,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>44</v>
@@ -11012,10 +11016,10 @@
         <v>15</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -11024,7 +11028,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>44</v>
@@ -11033,10 +11037,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -11045,7 +11049,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>44</v>
@@ -11057,7 +11061,7 @@
         <v>78</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -11075,19 +11079,19 @@
         <v>15</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>44</v>
@@ -11096,31 +11100,31 @@
         <v>15</v>
       </c>
       <c r="E17" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="5"/>
     </row>
